--- a/data/trans_orig/P79A3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79A3_2023-Provincia-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5333</v>
+        <v>6662</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08288559704387516</v>
+        <v>0.08288559704387514</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.469553562838487</v>
+        <v>0.5865062190058853</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -762,7 +762,7 @@
         <v>5317</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2463</v>
+        <v>2512</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>6783</v>
@@ -771,7 +771,7 @@
         <v>0.7838579885684109</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3631610096070699</v>
+        <v>0.3703497304602778</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>1</v>
@@ -783,19 +783,19 @@
         <v>6258</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2041</v>
+        <v>2433</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11996</v>
+        <v>12393</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.344984297479045</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1125015981675103</v>
+        <v>0.1341389238134596</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6612837427971712</v>
+        <v>0.6831682187853056</v>
       </c>
     </row>
     <row r="5">
@@ -812,16 +812,16 @@
         <v>10417</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6025</v>
+        <v>4667</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>11358</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9171144029561249</v>
+        <v>0.9171144029561247</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5304464371615132</v>
+        <v>0.4109139441731409</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4314</v>
+        <v>4248</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.216142011431589</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6360128233674325</v>
+        <v>0.6263325670745926</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -854,19 +854,19 @@
         <v>11882</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6144</v>
+        <v>5747</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16099</v>
+        <v>15707</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6550157025209551</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3387162572028288</v>
+        <v>0.3168317812146944</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8874984018324898</v>
+        <v>0.8658610761865405</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>2212</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4017673818265468</v>
+        <v>0.4017673818265467</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3898</v>
+        <v>4211</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1289196298824796</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.565452956934995</v>
+        <v>0.6108783015985844</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         <v>2212</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5982326181734534</v>
+        <v>0.5982326181734532</v>
       </c>
       <c r="O8" s="6" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>6005</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3001</v>
+        <v>2682</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>6894</v>
@@ -1064,7 +1064,7 @@
         <v>0.8710803701175204</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4353112686160646</v>
+        <v>0.3889649047284358</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1540,10 +1540,10 @@
         <v>4221</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6670842698008955</v>
+        <v>0.6670842698008957</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1677542677598006</v>
+        <v>0.1678116400018547</v>
       </c>
       <c r="P16" s="6" t="n">
         <v>1</v>
@@ -1555,19 +1555,19 @@
         <v>4881</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2486</v>
+        <v>2314</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6566</v>
+        <v>6584</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.675074230483954</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3437697647417755</v>
+        <v>0.3199464760287692</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9080921852680499</v>
+        <v>0.9105568775334576</v>
       </c>
     </row>
     <row r="17">
@@ -1608,16 +1608,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3513</v>
+        <v>3515</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3329157301991044</v>
+        <v>0.3329157301991045</v>
       </c>
       <c r="O17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8322231386083376</v>
+        <v>0.8327514761041405</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -1626,19 +1626,19 @@
         <v>2350</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4746</v>
+        <v>4917</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3249257695160461</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09191188617999047</v>
+        <v>0.08944312246654244</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6563941790797824</v>
+        <v>0.6800535239712311</v>
       </c>
     </row>
     <row r="18">
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2388</v>
+        <v>2799</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.235048068983163</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7604342825781811</v>
+        <v>0.8914392159270679</v>
       </c>
     </row>
     <row r="21">
@@ -1931,19 +1931,19 @@
         <v>4669</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1505</v>
+        <v>1604</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10100</v>
+        <v>9997</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1915972259141038</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06175245821665759</v>
+        <v>0.06582226761861502</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4144314047783571</v>
+        <v>0.4102180077773293</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -1952,19 +1952,19 @@
         <v>10419</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6555</v>
+        <v>6798</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13643</v>
+        <v>13669</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5875074923935328</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3696347068214734</v>
+        <v>0.3833272499444576</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7692958389302559</v>
+        <v>0.7707667883795449</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -1973,19 +1973,19 @@
         <v>15088</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9307</v>
+        <v>8891</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22353</v>
+        <v>22148</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3583459435200219</v>
+        <v>0.358345943520022</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2210396880691576</v>
+        <v>0.211155886355124</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5308818833818063</v>
+        <v>0.5260101808418316</v>
       </c>
     </row>
     <row r="23">
@@ -2002,19 +2002,19 @@
         <v>19702</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14271</v>
+        <v>14374</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>22866</v>
+        <v>22767</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8084027740858962</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5855685952216431</v>
+        <v>0.5897819922226711</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9382475417833427</v>
+        <v>0.9341777323813852</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -2023,19 +2023,19 @@
         <v>7315</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4091</v>
+        <v>4065</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11179</v>
+        <v>10936</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4124925076064671</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2307041610697441</v>
+        <v>0.2292332116204551</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6303652931785277</v>
+        <v>0.6166727500555425</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>24</v>
@@ -2044,19 +2044,19 @@
         <v>27017</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>19752</v>
+        <v>19957</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>32798</v>
+        <v>33214</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6416540564799781</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4691181166181936</v>
+        <v>0.4739898191581681</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7789603119308424</v>
+        <v>0.7888441136448763</v>
       </c>
     </row>
     <row r="24">
